--- a/Lines_IPR.xlsx
+++ b/Lines_IPR.xlsx
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -120,6 +120,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -374,8 +377,8 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>5.0</v>
+      <c r="D2" s="4">
+        <v>4.0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -420,8 +423,8 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
-        <v>5.0</v>
+      <c r="D4" s="4">
+        <v>4.0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -443,8 +446,8 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
-        <v>5.0</v>
+      <c r="D5" s="4">
+        <v>3.0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -489,8 +492,8 @@
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
-        <v>5.0</v>
+      <c r="D7" s="4">
+        <v>4.0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
